--- a/data/outputs/数学期刊(下)_altmetric/61Israel Journal of Mathematics.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/61Israel Journal of Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE144"/>
+  <dimension ref="A1:CF144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1033,6 +1038,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1527,6 +1538,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1764,6 +1778,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2021,6 +2038,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2274,6 +2294,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2519,6 +2542,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2756,6 +2782,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2993,6 +3022,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3236,6 +3268,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3483,6 +3518,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3740,6 +3778,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3981,6 +4022,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4216,6 +4260,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4459,6 +4506,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4696,6 +4746,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4947,6 +5000,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5200,6 +5256,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5433,6 +5492,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5678,6 +5740,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5923,6 +5988,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6176,6 +6244,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6425,6 +6496,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6662,6 +6736,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6909,6 +6986,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7144,6 +7224,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7385,6 +7468,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7622,6 +7708,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7865,6 +7954,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8110,6 +8202,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8363,6 +8458,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8608,6 +8706,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8861,6 +8962,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9106,6 +9210,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9347,6 +9454,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9600,6 +9710,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9849,6 +9962,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10094,6 +10210,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10339,6 +10458,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10584,6 +10706,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10821,6 +10946,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11062,6 +11190,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11307,6 +11438,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11548,6 +11682,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11801,6 +11938,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12044,6 +12184,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12291,6 +12434,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12544,6 +12690,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12787,6 +12936,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13030,6 +13182,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13275,6 +13430,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13516,6 +13674,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13759,6 +13920,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14004,6 +14168,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>5.04</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14249,6 +14416,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14492,6 +14662,9 @@
         <v>0</v>
       </c>
       <c r="CE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14727,6 +14900,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14964,6 +15140,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15209,6 +15388,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15448,6 +15630,9 @@
         <v>0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15695,6 +15880,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15940,6 +16128,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16185,6 +16376,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16426,6 +16620,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16685,6 +16882,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16922,6 +17122,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17171,6 +17374,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17424,6 +17630,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17669,6 +17878,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17918,6 +18130,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18163,6 +18378,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18408,6 +18626,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18653,6 +18874,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18906,6 +19130,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19151,6 +19378,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19396,6 +19626,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19633,6 +19866,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19888,6 +20124,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20123,6 +20362,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20358,6 +20600,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20601,6 +20846,9 @@
         <v>0</v>
       </c>
       <c r="CE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20852,6 +21100,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21099,6 +21350,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21338,6 +21592,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21573,6 +21830,9 @@
         <v>0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21818,6 +22078,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22075,6 +22338,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22318,6 +22584,9 @@
         <v>0</v>
       </c>
       <c r="CE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22553,6 +22822,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22798,6 +23070,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23039,6 +23314,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23288,6 +23566,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23533,6 +23814,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23786,6 +24070,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24039,6 +24326,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24276,6 +24566,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24513,6 +24806,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24750,6 +25046,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -24987,6 +25286,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25232,6 +25534,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25477,6 +25782,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25730,6 +26038,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -25979,6 +26290,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26220,6 +26534,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26465,6 +26782,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26700,6 +27020,9 @@
         <v>0</v>
       </c>
       <c r="CE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26935,6 +27258,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27180,6 +27506,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27425,6 +27754,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27674,6 +28006,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -27919,6 +28254,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28156,6 +28494,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28397,6 +28738,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28646,6 +28990,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -28895,6 +29242,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29140,6 +29490,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29375,6 +29728,9 @@
         <v>0</v>
       </c>
       <c r="CE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29626,6 +29982,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -29861,6 +30220,9 @@
         <v>0</v>
       </c>
       <c r="CE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30096,6 +30458,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30341,6 +30706,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -30578,6 +30946,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -30823,6 +31194,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31076,6 +31450,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31319,6 +31696,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31562,6 +31942,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -31807,6 +32190,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32052,6 +32438,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32287,6 +32676,9 @@
         <v>0</v>
       </c>
       <c r="CE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32534,6 +32926,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -32771,6 +33166,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33008,6 +33406,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33245,6 +33646,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -33498,6 +33902,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -33743,6 +34150,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -33978,6 +34388,9 @@
         <v>0</v>
       </c>
       <c r="CE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34221,6 +34634,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34459,6 +34875,9 @@
       </c>
       <c r="CE139" t="n">
         <v>0</v>
+      </c>
+      <c r="CF139" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="140">
@@ -34693,6 +35112,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -34935,6 +35357,9 @@
       </c>
       <c r="CE141" t="n">
         <v>0</v>
+      </c>
+      <c r="CF141" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="142">
@@ -35185,6 +35610,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -35422,6 +35850,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -35659,6 +36090,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
